--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Orientais.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Orientais.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Canjica De Milho 50g C/ Sal Marinho</t>
+          <t>Arroz Caramelizado Miyako 150g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9542f8c-3c6a-43d3-a80a-af932c4f383a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9b38d4a-ab96-4374-9a4a-f1b537078419.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7898270967702</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Canjica De Milho Organica 50g C/ Açucar</t>
+          <t>Biscoito Cookie Sembei Karui 230g Tradicional</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7f1fdab-946e-4a53-8ded-92b5b0154de1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5d53b0f8-17f4-447e-8fba-5786450fb226.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7898270963544</t>
         </is>
       </c>
     </row>
@@ -515,7 +530,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Biscoito Sembei Miyako 250g Biju</t>
+          <t>Biscoito Cookies Karui 230g Sembei Ao Leite</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,115 +540,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6d2747d0-766c-418c-a3b8-8b58764e704b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orientais</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Arroz Caramelizado Miyako 150g</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9b38d4a-ab96-4374-9a4a-f1b537078419.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Orientais</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Biscoito Cookie Sembei Karui 230g Tradicional</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5d53b0f8-17f4-447e-8fba-5786450fb226.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Orientais</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Biscoito Cookies Sembei 260g Ao Leite</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>R$ 25,99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa78d014-6ab6-42d1-b76f-7ed55b14a5a7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Orientais</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Biscoito Cookies Karui 230g Sembei Ao Leite</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7e64229-121f-48bc-8c13-1929253df815.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7898270963544</t>
         </is>
       </c>
     </row>
